--- a/data/excel2.xlsx
+++ b/data/excel2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="16680" windowWidth="28240" xWindow="280" yWindow="460"/>
+    <workbookView windowHeight="18000" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
@@ -25,7 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小董</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75,9 +116,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,16 +437,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>aaaa</v>
-      </c>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20200001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20200004</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20200005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20200006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20200009</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20200011</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
